--- a/P0003/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0003/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0003/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="275" documentId="6_{9B034ABA-473E-44FB-A362-19F7A50463AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{918948D6-B1EB-4614-AFDD-A4712ABBF64C}"/>
+  <xr:revisionPtr revIDLastSave="282" documentId="6_{9B034ABA-473E-44FB-A362-19F7A50463AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F7181B9-9997-44B6-9914-8F769E33F091}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -965,7 +965,7 @@
     <t>1. MARCO INTRODUCTORIO Y METODOLOGICO (1)</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0003/02_PRODUCTOS/01-Producto_01/ANEXO_5_InfoCampo/POPMCA -Caño Mojana-Rio Cauca/1. MARCO INTRODUCTORIO Y METODOLOGICO (1).PDF</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0003/02_PRODUCTOS/01-Producto_01/ANEXO_5_InfoCampo/POPMCA -Caño Mojana-Rio Cauca/1. MARCO INTRODUCTORIO Y METODOLOGICO (1).pdf</t>
   </si>
   <si>
     <t>El documento corresponde al ANEXO 5, del producto 1 "Informe de revisión de información base de las dinámicas hidráulicas" en el marco del contrato 119 de 2018. El documento "MARCO INTRODUCTORIO Y METODOLOGICO" corresponde a la etapa 1 de la "FORMULACIÓN DEL PLAN DE ORDENACIÓN Y MANEJO DE LA CUENCA HIDROGRÁFICA LA MOJANA DEL RÍO CAUCA". El principal objetivo de la etapa de marco introductorio es establecer la importancia de un adecuado ordenamiento ambiental del territorio a través de la gestión y manejo de las cuencas hidrográficas, incorporando el componente de gestión del riesgo. Esto busca identificar amenazas y vulnerabilidades que puedan afectar el uso de los recursos naturales, así como establecer estrategias para la prevención, mitigación e intervención en condiciones de riesgo, garantizando la sostenibilidad de los procesos de intervención en el territorio.</t>
@@ -989,7 +989,7 @@
     <t>2. FASE APRESTAMIENTO</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0003/02_PRODUCTOS/01-Producto_01/ANEXO_5_InfoCampo/POPMCA -Caño Mojana-Rio Cauca/2. FASE APRESTAMIENTO.PDF</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0003/02_PRODUCTOS/01-Producto_01/ANEXO_5_InfoCampo/POPMCA -Caño Mojana-Rio Cauca/2. FASE APRESTAMIENTO.pdf</t>
   </si>
   <si>
     <t>El documento corresponde al ANEXO 5, del producto 1 "Informe de revisión de información base de las dinámicas hidráulicas" en el marco del contrato 119 de 2018. El documento titulado "Elaboración del Plan de Ordenación y Manejo de la Cuenca La Mojana – Río Cauca" establece una serie de objetivos para la "fase de aprestamiento". Estos incluyen desarrollar un Plan de Trabajo que detalle propósitos y actividades, identificar, caracterizar y priorizar actores involucrados, y recopilar y analizar información existente para establecer un diagnóstico inicial. Además, se busca elaborar un Plan Operativo Detallado que compile los hallazgos y desarrollar estrategias de gestión de información que fortalezcan la capacidad de monitoreo de la cuenca, asegurando una administración eficiente de los recursos hídricos.</t>
@@ -1014,7 +1014,7 @@
     <t>3. FASE DIAGNÓSTICO</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0003/02_PRODUCTOS/01-Producto_01/ANEXO_5_InfoCampo/POPMCA -Caño Mojana-Rio Cauca/3. FASE DIAGNÓSTICO.PDF</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0003/02_PRODUCTOS/01-Producto_01/ANEXO_5_InfoCampo/POPMCA -Caño Mojana-Rio Cauca/3. FASE DIAGNÓSTICO.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">El documento corresponde al ANEXO 5, del producto 1 "Informe de revisión de información base de las dinámicas hidráulicas" en el marco del contrato 119 de 2018. El documento titulado "Elaboración del Plan de Ordenación y Manejo de la Cuenca La Mojana – Río Cauca" - Fase de Diagnóstico, se consolida el Consejo de Cuenca y se indica y evalúa el estado actual de la cuenca en sus componentes físico-biótico, socioeconómico y cultural, político administrativo, funcional y de gestión del riesgo, los cuales sirven de base para el análisis situacional y la síntesis ambiental de la cuenca La Mojana - Rio Cauca, para la ordenación y manejo del territorio. </t>
@@ -1036,7 +1036,7 @@
     <t>4. FASE PROSPECTIVA Y ZONIFICACIÓN</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0003/02_PRODUCTOS/01-Producto_01/ANEXO_5_InfoCampo/POPMCA -Caño Mojana-Rio Cauca/4. FASE PROSPECTIVA Y ZONIFICACIÓN.PDF</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0003/02_PRODUCTOS/01-Producto_01/ANEXO_5_InfoCampo/POPMCA -Caño Mojana-Rio Cauca/4. FASE PROSPECTIVA Y ZONIFICACIÓN.pdf</t>
   </si>
   <si>
     <t>El documento corresponde al ANEXO 5, del producto 1 "Informe de revisión de información base de las dinámicas hidráulicas" en el marco del contrato 119 de 2018. El documento titulado "Elaboración del Plan de Ordenación y Manejo de la Cuenca La Mojana – Río Cauca" en la fase prospectiva, busca identificar tendencias y escenarios futuros que influyan en el manejo sostenible de la cuenca. Por otro lado, la fase de zonificación tiene como objetivo sectorizar la cuenca en unidades homogéneas, considerando factores físicos, biológicos, socioeconómicos y culturales, para garantizar un uso adecuado y sostenible del territorio, así como la conservación de sus recursos naturales</t>
@@ -1557,7 +1557,7 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1965,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4298,15 +4298,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -4450,10 +4441,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
--- a/P0003/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0003/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0003/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="282" documentId="6_{9B034ABA-473E-44FB-A362-19F7A50463AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F7181B9-9997-44B6-9914-8F769E33F091}"/>
+  <xr:revisionPtr revIDLastSave="310" documentId="6_{9B034ABA-473E-44FB-A362-19F7A50463AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0824E5F4-FEC4-4D58-8513-09FA8A2F7546}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0003/02_PRODUCTOS/01-Producto_01/ANEXO_5_InfoCampo/ALCALDIA AYAPEL/Ayapel/DMI-ayapel completo/DMI/DMI_DISTRITO_MANEJO_INTEGRAL.pdf</t>
   </si>
   <si>
-    <t>Alcaldía Ayapel</t>
+    <t>Alcaldía de Ayapel</t>
   </si>
   <si>
     <t>El documento corresponde al ANEXO 5, del producto 1 "Informe de revisión de información base de las dinámicas hidráulicas" en el marco del contrato 119 de 2018. El documento es un mapa correspondiente al Distrito de Manejo Integrado, dentro del marco del ajuste y actualización del Plan Básico de Ordenamiento territorial PBOT del municipio de Ayapel - Córdoba, ACUARIO DE AMOR Y AMISTAD (2013 - 2025).</t>
@@ -324,6 +324,9 @@
     <t>AMBIELAB LTDA</t>
   </si>
   <si>
+    <t>Alcaldía Ayapel</t>
+  </si>
+  <si>
     <t>El documento corresponde al ANEXO 5, del producto 1 "Informe de revisión de información base de las dinámicas hidráulicas" en el marco del contrato 119 de 2018. El presente documento aborda la caracterización de aguas residuales y naturales del Municipio de Ayapel.</t>
   </si>
   <si>
@@ -395,9 +398,6 @@
   </si>
   <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0003/02_PRODUCTOS/01-Producto_01/ANEXO_5_InfoCampo/ALCALDIA AYAPEL/Ayapel/PGIRS AYAPEL VF_18dic.pdf</t>
-  </si>
-  <si>
-    <t>Alcaldía de Ayapel</t>
   </si>
   <si>
     <t>El documento corresponde al ANEXO 5, del producto 1 "Informe de revisión de información base de las dinámicas hidráulicas" en el marco del contrato 119 de 2018. El documento contiene la actualización y ajuste del PGIRS del municipio de Ayapel acorde a lo establecido con la normatividad nacional. El documento contiene un conjunto de programas y proyectos formulados con el objetivo de implementar una Gestión Integral de Residuos Sólidos. Este documento tiene como objetivo ser una herramienta de planificación para la toma de decisiones a corto, mediano y largo plazo que busquen reducir las causas y los efectos de las problemáticas identificadas en el municipio.</t>
@@ -1059,7 +1059,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1243,7 +1243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1298,6 +1298,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1630,13 +1633,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1653,6 +1649,13 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1671,11 +1674,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R41" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R41" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="A1:R41" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R37">
-    <sortCondition ref="B2:B37"/>
-  </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -1965,16 +1965,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="53" style="3" customWidth="1"/>
+    <col min="4" max="4" width="79.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3"/>
     <col min="6" max="10" width="9.5703125" style="3" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" style="3" customWidth="1"/>
@@ -1986,7 +1986,7 @@
     <col min="17" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="14.25" customHeight="1">
+    <row r="2" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="17.25" customHeight="1">
+    <row r="3" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>18</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18.75" customHeight="1">
+    <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1">
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.5" customHeight="1">
+    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>90</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>25</v>
@@ -2522,7 +2522,7 @@
         <v>25</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>27</v>
@@ -2531,7 +2531,7 @@
         <v>28</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>39</v>
@@ -2540,33 +2540,33 @@
         <v>25</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E11" s="5">
         <v>2012</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>25</v>
@@ -2578,7 +2578,7 @@
         <v>25</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>27</v>
@@ -2587,7 +2587,7 @@
         <v>28</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>39</v>
@@ -2596,24 +2596,24 @@
         <v>25</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E12" s="8">
         <v>2018</v>
@@ -2633,8 +2633,8 @@
       <c r="J12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>107</v>
+      <c r="K12" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>27</v>
@@ -2643,39 +2643,39 @@
         <v>28</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>30</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E13" s="5">
         <v>2016</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>25</v>
@@ -2714,7 +2714,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>18</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>2016</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>25</v>
@@ -2770,7 +2770,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="17.25" customHeight="1">
+    <row r="17" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="20.25" customHeight="1">
+    <row r="18" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>18</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>18</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>18</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>18</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>18</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>18</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>18</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="20.25" customHeight="1">
+    <row r="33" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>18</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>18</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>18</v>
       </c>
@@ -3921,7 +3921,7 @@
       <c r="J35" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="22" t="s">
         <v>278</v>
       </c>
       <c r="L35" s="4" t="s">
@@ -3946,7 +3946,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>18</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>18</v>
       </c>
@@ -4019,10 +4019,10 @@
         <v>2012</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>25</v>
@@ -4058,7 +4058,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>18</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>18</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="16.5" customHeight="1">
+    <row r="40" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>18</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>18</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J44" s="21"/>
     </row>
   </sheetData>
@@ -4451,9 +4451,27 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>